--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2518811.301958859</v>
+        <v>2514553.036305623</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,7 +676,7 @@
         <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
-        <v>252.0868520880586</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.36059768091647</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>155.1464635459283</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>87.61748496117926</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370742</v>
+        <v>45.84481919370735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353362</v>
+        <v>21.62032152353349</v>
       </c>
       <c r="S3" t="n">
-        <v>148.1873837356351</v>
+        <v>146.6825794839475</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
@@ -797,7 +797,7 @@
         <v>225.8581620548773</v>
       </c>
       <c r="V3" t="n">
-        <v>231.2957828977374</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>87.93659409078579</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
-        <v>123.5587419097207</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775205</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5352037822505</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>250.2535779816357</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>227.3618782583801</v>
       </c>
       <c r="G5" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -949,22 +949,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>31.1295676359963</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>18.60084915099488</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6.980384243200308</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>21.54508192389528</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>129.6221807679237</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>79.286047385091</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>251.883818349536</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>130.4114987159128</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>14.19454216862647</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>44.7513807668926</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>71.76895293959859</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>127.5379405516757</v>
+        <v>52.47682210852988</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>108.6115798077508</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>84.90358457993578</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>81.11398998229724</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>159.2661870898842</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>65.99480013030555</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>123.3988099269029</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>123.7971820797027</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>59.44001103519371</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>33.66638448560049</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>99.92818157412093</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2248.446136916521</v>
+        <v>1624.850436048777</v>
       </c>
       <c r="C2" t="n">
-        <v>1879.483619976109</v>
+        <v>1624.850436048777</v>
       </c>
       <c r="D2" t="n">
-        <v>1521.217921369358</v>
+        <v>1266.584737442027</v>
       </c>
       <c r="E2" t="n">
-        <v>1135.429668771114</v>
+        <v>880.7964848437823</v>
       </c>
       <c r="F2" t="n">
-        <v>724.4437639815067</v>
+        <v>469.8105800541747</v>
       </c>
       <c r="G2" t="n">
-        <v>307.3341034669448</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H2" t="n">
         <v>52.70091953961285</v>
@@ -4330,22 +4330,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.1151908308849</v>
+        <v>72.11519083088521</v>
       </c>
       <c r="K2" t="n">
-        <v>151.9506691118213</v>
+        <v>151.950669111822</v>
       </c>
       <c r="L2" t="n">
-        <v>701.3800037181034</v>
+        <v>701.3800037181045</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.332547639725</v>
+        <v>1329.332547639727</v>
       </c>
       <c r="N2" t="n">
-        <v>1952.814022680358</v>
+        <v>1952.814022680361</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.72675629197</v>
+        <v>2494.726756291969</v>
       </c>
       <c r="P2" t="n">
         <v>2602.377499016428</v>
@@ -4354,28 +4354,28 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.045976980643</v>
+        <v>2633.671635888808</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.045976980643</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2635.045976980643</v>
+        <v>2388.455526285669</v>
       </c>
       <c r="U2" t="n">
-        <v>2635.045976980643</v>
+        <v>2388.455526285669</v>
       </c>
       <c r="V2" t="n">
-        <v>2635.045976980643</v>
+        <v>2388.455526285669</v>
       </c>
       <c r="W2" t="n">
-        <v>2635.045976980643</v>
+        <v>2388.455526285669</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.045976980643</v>
+        <v>2014.989768024589</v>
       </c>
       <c r="Y2" t="n">
-        <v>2635.045976980643</v>
+        <v>1624.850436048777</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.6504081935058</v>
+        <v>966.6504081935055</v>
       </c>
       <c r="C3" t="n">
-        <v>792.1973789123788</v>
+        <v>792.1973789123786</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2629692511275</v>
+        <v>643.2629692511273</v>
       </c>
       <c r="E3" t="n">
-        <v>484.025514245672</v>
+        <v>484.0255142456718</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725569</v>
+        <v>337.4909562725568</v>
       </c>
       <c r="G3" t="n">
-        <v>200.037852467983</v>
+        <v>200.0378524679829</v>
       </c>
       <c r="H3" t="n">
-        <v>99.0088177150749</v>
+        <v>99.00881771507483</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4412,19 +4412,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>118.4560672099611</v>
+        <v>380.2766518524141</v>
       </c>
       <c r="L3" t="n">
-        <v>620.3264609475548</v>
+        <v>882.1470455900082</v>
       </c>
       <c r="M3" t="n">
-        <v>1257.964760382443</v>
+        <v>1519.785345024897</v>
       </c>
       <c r="N3" t="n">
-        <v>1910.138639685152</v>
+        <v>1715.45809568119</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.996692751183</v>
+        <v>2262.164335642193</v>
       </c>
       <c r="P3" t="n">
         <v>2613.773581115997</v>
@@ -4436,13 +4436,13 @@
         <v>2613.207268371013</v>
       </c>
       <c r="S3" t="n">
-        <v>2463.523042375421</v>
+        <v>2465.043046670055</v>
       </c>
       <c r="T3" t="n">
-        <v>2266.48656248056</v>
+        <v>2268.006566775194</v>
       </c>
       <c r="U3" t="n">
-        <v>2038.34700484937</v>
+        <v>2039.867009144004</v>
       </c>
       <c r="V3" t="n">
         <v>1804.714900912262</v>
@@ -4451,7 +4451,7 @@
         <v>1550.47754418406</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.626043978528</v>
+        <v>1342.626043978527</v>
       </c>
       <c r="Y3" t="n">
         <v>1134.865745213574</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>608.1790953716816</v>
+        <v>2093.111873345617</v>
       </c>
       <c r="C4" t="n">
-        <v>439.2429124437747</v>
+        <v>2093.111873345617</v>
       </c>
       <c r="D4" t="n">
-        <v>439.2429124437747</v>
+        <v>2093.111873345617</v>
       </c>
       <c r="E4" t="n">
-        <v>439.2429124437747</v>
+        <v>1945.198779763224</v>
       </c>
       <c r="F4" t="n">
-        <v>439.2429124437747</v>
+        <v>1798.308832265313</v>
       </c>
       <c r="G4" t="n">
-        <v>350.4180699278294</v>
+        <v>1798.308832265313</v>
       </c>
       <c r="H4" t="n">
-        <v>196.0761709613025</v>
+        <v>1643.966933298786</v>
       </c>
       <c r="I4" t="n">
-        <v>71.26936095148362</v>
+        <v>1643.966933298786</v>
       </c>
       <c r="J4" t="n">
-        <v>52.70091953961285</v>
+        <v>1643.966933298786</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131523</v>
+        <v>1743.897338472326</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039129</v>
+        <v>1927.300286863087</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856111</v>
+        <v>2131.062104044785</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066363</v>
+        <v>2335.413537065811</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249418</v>
+        <v>2508.148865184117</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.167083351318</v>
+        <v>2632.433097110493</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221467</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221467</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S4" t="n">
-        <v>836.1686462696989</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T4" t="n">
-        <v>836.1686462696989</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U4" t="n">
-        <v>836.1686462696989</v>
+        <v>2345.893265246259</v>
       </c>
       <c r="V4" t="n">
-        <v>836.1686462696989</v>
+        <v>2093.111873345617</v>
       </c>
       <c r="W4" t="n">
-        <v>836.1686462696989</v>
+        <v>2093.111873345617</v>
       </c>
       <c r="X4" t="n">
-        <v>608.1790953716816</v>
+        <v>2093.111873345617</v>
       </c>
       <c r="Y4" t="n">
-        <v>608.1790953716816</v>
+        <v>2093.111873345617</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1704.478944518417</v>
+        <v>1546.368350337489</v>
       </c>
       <c r="C5" t="n">
-        <v>1704.478944518417</v>
+        <v>1177.405833397078</v>
       </c>
       <c r="D5" t="n">
-        <v>1704.478944518417</v>
+        <v>819.1401347903272</v>
       </c>
       <c r="E5" t="n">
-        <v>1318.690691920173</v>
+        <v>819.1401347903272</v>
       </c>
       <c r="F5" t="n">
-        <v>907.7047871305651</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G5" t="n">
-        <v>490.6170053669925</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H5" t="n">
         <v>172.393890139502</v>
@@ -4567,25 +4567,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>392.0318096650763</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L5" t="n">
-        <v>531.3604655063294</v>
+        <v>809.5785249674213</v>
       </c>
       <c r="M5" t="n">
-        <v>1163.078276489641</v>
+        <v>996.277937792829</v>
       </c>
       <c r="N5" t="n">
-        <v>1790.385944549488</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O5" t="n">
-        <v>1960.554969866447</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P5" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4597,22 +4597,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2447.386931764343</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U5" t="n">
-        <v>2447.386931764343</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V5" t="n">
-        <v>2447.386931764343</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="W5" t="n">
-        <v>2094.618276494229</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="X5" t="n">
-        <v>2094.618276494229</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="Y5" t="n">
-        <v>1704.478944518417</v>
+        <v>1932.968190401611</v>
       </c>
     </row>
     <row r="6">
@@ -4652,19 +4652,19 @@
         <v>120.3087392029699</v>
       </c>
       <c r="L6" t="n">
-        <v>257.5383372186639</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M6" t="n">
-        <v>898.0836866857685</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N6" t="n">
-        <v>1550.257565988477</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O6" t="n">
-        <v>2099.6935747412</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P6" t="n">
-        <v>2523.661343222037</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.70091953961285</v>
+        <v>535.2288800639797</v>
       </c>
       <c r="C7" t="n">
-        <v>52.70091953961285</v>
+        <v>366.2926971360728</v>
       </c>
       <c r="D7" t="n">
-        <v>52.70091953961285</v>
+        <v>366.2926971360728</v>
       </c>
       <c r="E7" t="n">
-        <v>52.70091953961285</v>
+        <v>218.3796035536797</v>
       </c>
       <c r="F7" t="n">
-        <v>52.70091953961285</v>
+        <v>71.4896560557693</v>
       </c>
       <c r="G7" t="n">
-        <v>52.70091953961285</v>
+        <v>71.4896560557693</v>
       </c>
       <c r="H7" t="n">
         <v>52.70091953961285</v>
@@ -4758,19 +4758,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U7" t="n">
-        <v>1045.584707824008</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V7" t="n">
-        <v>790.9002196181209</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W7" t="n">
-        <v>501.4830495811603</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X7" t="n">
-        <v>273.4934986831429</v>
+        <v>535.2288800639797</v>
       </c>
       <c r="Y7" t="n">
-        <v>52.70091953961285</v>
+        <v>535.2288800639797</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>902.5373151068286</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="C8" t="n">
-        <v>902.5373151068286</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="D8" t="n">
-        <v>880.774606092793</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="E8" t="n">
-        <v>880.774606092793</v>
+        <v>1198.997721320284</v>
       </c>
       <c r="F8" t="n">
-        <v>469.7887013031854</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G8" t="n">
-        <v>52.70091953961285</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H8" t="n">
         <v>52.70091953961285</v>
@@ -4804,25 +4804,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3408185533492</v>
+        <v>171.8788747909445</v>
       </c>
       <c r="K8" t="n">
-        <v>644.8079315733946</v>
+        <v>575.34598781099</v>
       </c>
       <c r="L8" t="n">
-        <v>784.1365874146478</v>
+        <v>1128.159246057189</v>
       </c>
       <c r="M8" t="n">
-        <v>1415.85439839796</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N8" t="n">
-        <v>1610.188611289942</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O8" t="n">
-        <v>2157.349816057019</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P8" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4831,25 +4831,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2478.830939477471</v>
+        <v>2504.114481255467</v>
       </c>
       <c r="T8" t="n">
-        <v>2264.031077745182</v>
+        <v>2289.314619523178</v>
       </c>
       <c r="U8" t="n">
-        <v>2010.339374490333</v>
+        <v>2289.314619523178</v>
       </c>
       <c r="V8" t="n">
-        <v>1679.276487146762</v>
+        <v>1958.251732179608</v>
       </c>
       <c r="W8" t="n">
-        <v>1679.276487146762</v>
+        <v>1958.251732179608</v>
       </c>
       <c r="X8" t="n">
-        <v>1679.276487146762</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="Y8" t="n">
-        <v>1289.13715517095</v>
+        <v>1584.785973918528</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
-        <v>1645.695465035541</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N9" t="n">
-        <v>2028.828954629068</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P9" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.045976980643</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>221.3077645442295</v>
+        <v>132.7878360902098</v>
       </c>
       <c r="C10" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D10" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
         <v>52.70091953961285</v>
@@ -4986,28 +4986,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T10" t="n">
-        <v>696.5284430307253</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>442.1003436877596</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V10" t="n">
-        <v>442.1003436877596</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W10" t="n">
-        <v>442.1003436877596</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X10" t="n">
-        <v>442.1003436877596</v>
+        <v>535.2288800639797</v>
       </c>
       <c r="Y10" t="n">
-        <v>221.3077645442295</v>
+        <v>314.4363009204495</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>139.234765840794</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>634.5603720565526</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>718.5507239167111</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6145409888043</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2401.759668664207</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2182.158203687148</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1348.981318788498</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1120.991767890481</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>900.1991887469509</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5524,10 +5524,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>662.1522880254209</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>493.2161050975141</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>843.8007528556607</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3007.624207651098</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C22" t="n">
-        <v>2878.798005073648</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D22" t="n">
-        <v>2728.681365661313</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661313</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4471.231687421535</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>4182.156460765733</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>3927.471972559846</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>3638.054802522885</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>3410.065251624868</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>3189.272672481338</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>984.5772922261136</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>815.6411092982067</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>665.524469885871</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>517.6113763034779</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>370.7214288055675</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>203.5253295204474</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369644</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261136</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1466.014387565343</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1238.024836667326</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1017.232257523796</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>808.8888553856866</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>639.9526724577797</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>489.836033045444</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>489.836033045444</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>342.9460855475336</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.7499862624135</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>990.5373202159263</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.345997432835</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>923.4098145049279</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>773.2931750925922</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>625.380081510199</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>478.4901340122886</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1722.776592304622</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,19 +6949,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.7772127656159</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C37" t="n">
-        <v>782.841029837709</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2380.301669307225</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.700204330166</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.624977674364</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.624977674364</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.547769317909</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9025067654818</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7502,13 +7502,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190824</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3195.647281583948</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>3026.711098656041</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>2876.594459243706</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E43" t="n">
-        <v>2728.681365661313</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>4404.185983673937</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>4370.179534698583</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>4115.495046492696</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>3826.077876455735</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>3598.088325557718</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>3377.295746414188</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>801.6918836311994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>801.6918836311994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>651.5752442188636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>503.6621506364705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +7993,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>379.148155418823</v>
+        <v>379.1481554188186</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.328121188872984</v>
+        <v>7.3281211888728</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>461.1122511579964</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>126.3388981706977</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>247.5863616793206</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>68.81599650215625</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>194.7955419930571</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8300,13 +8300,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384286</v>
+        <v>176.8008973295436</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>89.54312379457433</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>98.93303561408925</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>123.0160352517129</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298244</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>186.3401494352142</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-7.6250157187155e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.112639576356</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>211.5151132204107</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>136.274905234752</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>39.70888054695214</v>
+        <v>114.7699989900979</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>31.68313303847306</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.92839560200152</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>59.18072286392662</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>6.257951202384646</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.031485871339</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>43.84801117172492</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>24.81829093850965</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>252.5180899036437</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>45.49286644881032</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>860565.5611687776</v>
+        <v>860565.5611687775</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>793067.3743478793</v>
+        <v>793067.3743478794</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>793067.3743478792</v>
+        <v>793067.3743478793</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>793067.3743478792</v>
+        <v>793067.3743478793</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>793067.3743478794</v>
+        <v>793067.3743478793</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>793067.3743478794</v>
+        <v>793067.3743478793</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>793067.3743478793</v>
+        <v>793067.3743478794</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>793067.3743478792</v>
+        <v>793067.3743478793</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597546</v>
-      </c>
-      <c r="F2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
@@ -26334,28 +26334,28 @@
         <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918869</v>
+        <v>787455.5478918878</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008500592</v>
+        <v>4906.24700849981</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909054</v>
+        <v>190891.9800909052</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26426,40 +26426,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.424496707425</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="I4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="H4" t="n">
-        <v>6897.424496707338</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707328</v>
-      </c>
       <c r="J4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670733</v>
+        <v>6897.424496707425</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051734</v>
+        <v>86500.62127051735</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-428540.7776084899</v>
+        <v>-428540.7776084905</v>
       </c>
       <c r="C6" t="n">
-        <v>354891.2343772253</v>
+        <v>354891.234377226</v>
       </c>
       <c r="D6" t="n">
-        <v>359797.4813857259</v>
+        <v>359797.4813857256</v>
       </c>
       <c r="E6" t="n">
-        <v>-258169.6868374443</v>
+        <v>-258517.0660918011</v>
       </c>
       <c r="F6" t="n">
-        <v>517518.6604391405</v>
+        <v>517171.2811847831</v>
       </c>
       <c r="G6" t="n">
-        <v>517518.6604391403</v>
+        <v>517171.2811847834</v>
       </c>
       <c r="H6" t="n">
-        <v>517518.6604391402</v>
+        <v>517171.2811847834</v>
       </c>
       <c r="I6" t="n">
-        <v>517518.6604391401</v>
+        <v>517171.2811847834</v>
       </c>
       <c r="J6" t="n">
-        <v>345157.6680388596</v>
+        <v>344810.2887845027</v>
       </c>
       <c r="K6" t="n">
-        <v>517518.6604391406</v>
+        <v>517171.2811847834</v>
       </c>
       <c r="L6" t="n">
-        <v>517518.6604391403</v>
+        <v>517171.2811847834</v>
       </c>
       <c r="M6" t="n">
-        <v>389441.0636234265</v>
+        <v>389093.6843690695</v>
       </c>
       <c r="N6" t="n">
-        <v>517518.6604391402</v>
+        <v>517171.2811847835</v>
       </c>
       <c r="O6" t="n">
-        <v>517518.6604391403</v>
+        <v>517171.2811847833</v>
       </c>
       <c r="P6" t="n">
-        <v>517518.6604391405</v>
+        <v>517171.2811847831</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225491</v>
+        <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225491</v>
+        <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
-        <v>5.38791591551588</v>
+        <v>5.387915915515022</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.946793854488</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>63.17585708814104</v>
+        <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359322</v>
+        <v>119.3310866359321</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680916698</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459284</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050973</v>
+        <v>125.1291946439181</v>
       </c>
       <c r="U2" t="n">
         <v>251.156519019379</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.504804251687489</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.504804251687887</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>78.99389837773067</v>
+        <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.38275699775194</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894002</v>
+        <v>129.6100444894001</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
         <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2611846170395</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>1.884065342192315</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>179.5141674833313</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>181.5222954789697</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,22 +27776,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>134.1112475182377</v>
       </c>
       <c r="I7" t="n">
         <v>123.266557879417</v>
@@ -27830,10 +27830,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>279.2802704148967</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>333.1379596967877</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>25.03070636021653</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>87.96077371353684</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>34.37683630856102</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718789</v>
+        <v>2.364173605718793</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956755</v>
+        <v>24.21209293956759</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447369</v>
+        <v>91.14480293447383</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683752</v>
+        <v>200.6562795683755</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984516</v>
+        <v>300.7317482984521</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844681</v>
+        <v>373.0843262844687</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451696</v>
+        <v>415.1281986451702</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024181</v>
+        <v>421.8454069024187</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105519</v>
+        <v>398.3366556105525</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193693</v>
+        <v>339.9711197193698</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.304152464565</v>
+        <v>255.3041524645654</v>
       </c>
       <c r="R2" t="n">
-        <v>148.508520260233</v>
+        <v>148.5085202602332</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031695</v>
+        <v>53.87360604031704</v>
       </c>
       <c r="T2" t="n">
-        <v>10.349169959034</v>
+        <v>10.34916995903402</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575031</v>
+        <v>0.1891338884575034</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682464</v>
+        <v>1.264944396682466</v>
       </c>
       <c r="H3" t="n">
-        <v>12.21669983111749</v>
+        <v>12.2166998311175</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770765</v>
+        <v>43.55181365770773</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777937</v>
+        <v>119.5095054777939</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555188</v>
+        <v>204.2607800555191</v>
       </c>
       <c r="L3" t="n">
-        <v>274.65382613055</v>
+        <v>274.6538261305504</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102892</v>
+        <v>320.5080605102897</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704976</v>
+        <v>328.9909551704981</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808493</v>
+        <v>300.9624503808498</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489523</v>
+        <v>241.5488997489527</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361686</v>
+        <v>161.4690426361689</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910951</v>
+        <v>78.53751262910964</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820277</v>
+        <v>23.49578736820281</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908702</v>
+        <v>5.09861359890871</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753057</v>
+        <v>0.08322002609753071</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942302</v>
+        <v>1.060486889942303</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577925</v>
+        <v>9.428692530577939</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753759</v>
+        <v>31.89173301753764</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892072</v>
+        <v>74.97642311892083</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314783</v>
+        <v>123.2092950314785</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646946</v>
+        <v>157.6654781646948</v>
       </c>
       <c r="M4" t="n">
-        <v>166.23614039341</v>
+        <v>166.2361403934103</v>
       </c>
       <c r="N4" t="n">
-        <v>162.283416530898</v>
+        <v>162.2834165308982</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983901</v>
+        <v>149.8950014983903</v>
       </c>
       <c r="P4" t="n">
-        <v>128.261068943567</v>
+        <v>128.2610689435672</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780491</v>
+        <v>88.80131584780506</v>
       </c>
       <c r="R4" t="n">
-        <v>47.6833468877693</v>
+        <v>47.68334688776937</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472174</v>
+        <v>18.48139425472177</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026196</v>
+        <v>4.531171257026203</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139833</v>
+        <v>0.05784473945139842</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>183.7183104822601</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>359.7096985496632</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168894</v>
+        <v>19.61037504168925</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347109</v>
+        <v>80.64189725347154</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649313</v>
+        <v>554.9791258649318</v>
       </c>
       <c r="M2" t="n">
-        <v>634.2954989107293</v>
+        <v>634.29549891073</v>
       </c>
       <c r="N2" t="n">
-        <v>629.7792677178113</v>
+        <v>629.779267717812</v>
       </c>
       <c r="O2" t="n">
-        <v>547.3865996076881</v>
+        <v>547.3865996076844</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239640997</v>
+        <v>108.7381239641002</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011554</v>
+        <v>32.99846259011593</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>66.41934108115981</v>
+        <v>330.8845780937387</v>
       </c>
       <c r="L3" t="n">
-        <v>506.939791654135</v>
+        <v>506.9397916541354</v>
       </c>
       <c r="M3" t="n">
-        <v>644.0790903382708</v>
+        <v>644.0790903382713</v>
       </c>
       <c r="N3" t="n">
-        <v>658.7614942451606</v>
+        <v>197.6492430871648</v>
       </c>
       <c r="O3" t="n">
-        <v>284.7051041071026</v>
+        <v>552.2285252131348</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745592</v>
+        <v>355.1608540139431</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.48726855014709</v>
+        <v>21.48726855014735</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055954</v>
+        <v>100.9398032055956</v>
       </c>
       <c r="L4" t="n">
-        <v>185.2555034250107</v>
+        <v>185.255503425011</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552506</v>
+        <v>205.8200173552509</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101266</v>
+        <v>206.4155889101268</v>
       </c>
       <c r="O4" t="n">
-        <v>174.4801294124298</v>
+        <v>174.48012941243</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084605</v>
+        <v>125.5396282084607</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.63927259611053</v>
+        <v>2.639272596110672</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>152.2131223350778</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012659</v>
+        <v>335.531557994323</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451606</v>
+        <v>377.4642727362756</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35035,7 +35035,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>112.5097310692986</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>120.3817729811431</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>234.8688890391135</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>387.0035248419462</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>45.87687150790109</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>228.3679864663299</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2514553.036305623</v>
+        <v>2516313.566608408</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9385639094162</v>
+        <v>185.7444409660852</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>119.3310866359322</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36059768091647</v>
+        <v>1.360597680916669</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459283</v>
+        <v>155.1464635459284</v>
       </c>
       <c r="T2" t="n">
-        <v>87.61748496117926</v>
+        <v>212.7466796050973</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370735</v>
+        <v>45.84481919370742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353349</v>
+        <v>21.6203215235336</v>
       </c>
       <c r="S3" t="n">
-        <v>146.6825794839475</v>
+        <v>148.1873837356351</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
@@ -797,7 +797,7 @@
         <v>225.8581620548773</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>231.2957828977374</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>77.75080930550452</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
-        <v>250.2535779816357</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>227.3618782583801</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>328.0698386381782</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>18.60084915099488</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>6.980384243200308</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>49.25774174795036</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.6221807679237</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>130.4114987159128</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
-        <v>148.0280580960833</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>52.47682210852988</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>275.6685478670739</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>128.354836369143</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890409</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>184.5976356538003</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D37" t="n">
-        <v>147.6895341487364</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>123.7971820797027</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>123.7971820797003</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710083</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>59.44001103519371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1624.850436048777</v>
+        <v>1111.857470081707</v>
       </c>
       <c r="C2" t="n">
-        <v>1624.850436048777</v>
+        <v>1111.857470081707</v>
       </c>
       <c r="D2" t="n">
-        <v>1266.584737442027</v>
+        <v>753.5917714749569</v>
       </c>
       <c r="E2" t="n">
-        <v>880.7964848437823</v>
+        <v>367.8035188767126</v>
       </c>
       <c r="F2" t="n">
-        <v>469.8105800541747</v>
+        <v>360.8580181275092</v>
       </c>
       <c r="G2" t="n">
-        <v>52.70091953961285</v>
+        <v>173.2373706870191</v>
       </c>
       <c r="H2" t="n">
-        <v>52.70091953961285</v>
+        <v>173.2373706870191</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088521</v>
+        <v>72.11519083088496</v>
       </c>
       <c r="K2" t="n">
-        <v>151.950669111822</v>
+        <v>151.9506691118214</v>
       </c>
       <c r="L2" t="n">
-        <v>701.3800037181045</v>
+        <v>701.3800037181035</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.332547639727</v>
+        <v>1329.332547639726</v>
       </c>
       <c r="N2" t="n">
-        <v>1952.814022680361</v>
+        <v>1952.814022680359</v>
       </c>
       <c r="O2" t="n">
         <v>2494.726756291969</v>
@@ -4354,28 +4354,28 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2633.671635888808</v>
+        <v>2633.671635888807</v>
       </c>
       <c r="S2" t="n">
         <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2388.455526285669</v>
+        <v>2262.062400382721</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.455526285669</v>
+        <v>2262.062400382721</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.455526285669</v>
+        <v>2262.062400382721</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.455526285669</v>
+        <v>2262.062400382721</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.989768024589</v>
+        <v>1888.596642121641</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.850436048777</v>
+        <v>1498.457310145829</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.6504081935055</v>
+        <v>966.6504081935058</v>
       </c>
       <c r="C3" t="n">
-        <v>792.1973789123786</v>
+        <v>792.1973789123788</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2629692511273</v>
+        <v>643.2629692511275</v>
       </c>
       <c r="E3" t="n">
-        <v>484.0255142456718</v>
+        <v>484.025514245672</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725568</v>
+        <v>337.4909562725569</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0378524679829</v>
+        <v>200.037852467983</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507483</v>
+        <v>99.00881771507488</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4412,19 +4412,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>380.2766518524141</v>
+        <v>380.276651852414</v>
       </c>
       <c r="L3" t="n">
-        <v>882.1470455900082</v>
+        <v>882.1470455900077</v>
       </c>
       <c r="M3" t="n">
-        <v>1519.785345024897</v>
+        <v>1519.785345024896</v>
       </c>
       <c r="N3" t="n">
-        <v>1715.45809568119</v>
+        <v>1715.458095681189</v>
       </c>
       <c r="O3" t="n">
-        <v>2262.164335642193</v>
+        <v>2262.164335642191</v>
       </c>
       <c r="P3" t="n">
         <v>2613.773581115997</v>
@@ -4436,13 +4436,13 @@
         <v>2613.207268371013</v>
       </c>
       <c r="S3" t="n">
-        <v>2465.043046670055</v>
+        <v>2463.523042375421</v>
       </c>
       <c r="T3" t="n">
-        <v>2268.006566775194</v>
+        <v>2266.48656248056</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.867009144004</v>
+        <v>2038.34700484937</v>
       </c>
       <c r="V3" t="n">
         <v>1804.714900912262</v>
@@ -4451,7 +4451,7 @@
         <v>1550.47754418406</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.626043978527</v>
+        <v>1342.626043978528</v>
       </c>
       <c r="Y3" t="n">
         <v>1134.865745213574</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2093.111873345617</v>
+        <v>279.1501841376671</v>
       </c>
       <c r="C4" t="n">
-        <v>2093.111873345617</v>
+        <v>279.1501841376671</v>
       </c>
       <c r="D4" t="n">
-        <v>2093.111873345617</v>
+        <v>279.1501841376671</v>
       </c>
       <c r="E4" t="n">
-        <v>1945.198779763224</v>
+        <v>131.237090555274</v>
       </c>
       <c r="F4" t="n">
-        <v>1798.308832265313</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
-        <v>1798.308832265313</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>1643.966933298786</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
-        <v>1643.966933298786</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
-        <v>1643.966933298786</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>1743.897338472326</v>
+        <v>152.6313247131524</v>
       </c>
       <c r="L4" t="n">
-        <v>1927.300286863087</v>
+        <v>336.034273103913</v>
       </c>
       <c r="M4" t="n">
-        <v>2131.062104044785</v>
+        <v>539.7960902856112</v>
       </c>
       <c r="N4" t="n">
-        <v>2335.413537065811</v>
+        <v>744.1475233066365</v>
       </c>
       <c r="O4" t="n">
-        <v>2508.148865184117</v>
+        <v>916.8828514249419</v>
       </c>
       <c r="P4" t="n">
-        <v>2632.433097110493</v>
+        <v>1041.167083351318</v>
       </c>
       <c r="Q4" t="n">
-        <v>2635.045976980643</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="R4" t="n">
-        <v>2635.045976980643</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="S4" t="n">
-        <v>2635.045976980643</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="T4" t="n">
-        <v>2635.045976980643</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="U4" t="n">
-        <v>2345.893265246259</v>
+        <v>754.6272514870841</v>
       </c>
       <c r="V4" t="n">
-        <v>2093.111873345617</v>
+        <v>499.9427632811972</v>
       </c>
       <c r="W4" t="n">
-        <v>2093.111873345617</v>
+        <v>499.9427632811972</v>
       </c>
       <c r="X4" t="n">
-        <v>2093.111873345617</v>
+        <v>499.9427632811972</v>
       </c>
       <c r="Y4" t="n">
-        <v>2093.111873345617</v>
+        <v>279.1501841376671</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.368350337489</v>
+        <v>1623.739534426211</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.405833397078</v>
+        <v>1254.777017485799</v>
       </c>
       <c r="D5" t="n">
-        <v>819.1401347903272</v>
+        <v>896.511318879049</v>
       </c>
       <c r="E5" t="n">
-        <v>819.1401347903272</v>
+        <v>510.7230662808047</v>
       </c>
       <c r="F5" t="n">
-        <v>589.4816719030746</v>
+        <v>503.7775655316013</v>
       </c>
       <c r="G5" t="n">
         <v>172.393890139502</v>
@@ -4573,16 +4573,16 @@
         <v>477.4022825530416</v>
       </c>
       <c r="L5" t="n">
-        <v>809.5785249674213</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M5" t="n">
-        <v>996.277937792829</v>
+        <v>1661.933351782553</v>
       </c>
       <c r="N5" t="n">
-        <v>1623.585605852676</v>
+        <v>1856.267564674535</v>
       </c>
       <c r="O5" t="n">
-        <v>2170.746810619753</v>
+        <v>2403.428769441613</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4600,19 +4600,19 @@
         <v>2264.031077745182</v>
       </c>
       <c r="U5" t="n">
-        <v>2264.031077745182</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V5" t="n">
-        <v>1932.968190401611</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="W5" t="n">
-        <v>1932.968190401611</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="X5" t="n">
-        <v>1932.968190401611</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="Y5" t="n">
-        <v>1932.968190401611</v>
+        <v>2010.339374490333</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K6" t="n">
-        <v>120.3087392029699</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L6" t="n">
-        <v>624.6702790690885</v>
+        <v>376.1975890755595</v>
       </c>
       <c r="M6" t="n">
-        <v>1265.215628536193</v>
+        <v>1016.742938542664</v>
       </c>
       <c r="N6" t="n">
         <v>1638.905258545106</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>535.2288800639797</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C7" t="n">
-        <v>366.2926971360728</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D7" t="n">
-        <v>366.2926971360728</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
-        <v>218.3796035536797</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F7" t="n">
-        <v>71.4896560557693</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>71.4896560557693</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
         <v>52.70091953961285</v>
@@ -4758,19 +4758,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U7" t="n">
-        <v>1052.635600998958</v>
+        <v>1045.584707824008</v>
       </c>
       <c r="V7" t="n">
-        <v>1052.635600998958</v>
+        <v>790.9002196181209</v>
       </c>
       <c r="W7" t="n">
-        <v>763.218430961997</v>
+        <v>501.4830495811603</v>
       </c>
       <c r="X7" t="n">
-        <v>535.2288800639797</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y7" t="n">
-        <v>535.2288800639797</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.785973918528</v>
+        <v>547.3178008110954</v>
       </c>
       <c r="C8" t="n">
-        <v>1584.785973918528</v>
+        <v>547.3178008110954</v>
       </c>
       <c r="D8" t="n">
-        <v>1584.785973918528</v>
+        <v>547.3178008110954</v>
       </c>
       <c r="E8" t="n">
-        <v>1198.997721320284</v>
+        <v>547.3178008110954</v>
       </c>
       <c r="F8" t="n">
-        <v>788.0118165306759</v>
+        <v>540.3723000618919</v>
       </c>
       <c r="G8" t="n">
-        <v>370.9240347671034</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>171.8788747909445</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K8" t="n">
-        <v>575.34598781099</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>1128.159246057189</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M8" t="n">
-        <v>1314.858658882597</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N8" t="n">
-        <v>1942.166326942443</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O8" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4831,25 +4831,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2504.114481255467</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2289.314619523178</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U8" t="n">
-        <v>2289.314619523178</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V8" t="n">
-        <v>1958.251732179608</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.251732179608</v>
+        <v>1697.522731112109</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.785973918528</v>
+        <v>1324.056972851029</v>
       </c>
       <c r="Y8" t="n">
-        <v>1584.785973918528</v>
+        <v>933.9176408752171</v>
       </c>
     </row>
     <row r="9">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>597.2570777219835</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>449.3439841395904</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>449.3439841395904</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>634.334587849125</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
         <v>484.8112968429803</v>
@@ -5475,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5652,25 +5652,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>835.5837926935524</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122182</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1238.024836667322</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>1017.232257523792</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6928,58 +6928,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>633.9926444679666</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7159,7 +7159,7 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,22 +7186,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570815</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +7993,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>379.1481554188186</v>
+        <v>379.1481554188219</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.3281211888728</v>
+        <v>7.328121188872956</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>247.5863616793206</v>
+        <v>247.5863616793228</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8221,19 +8221,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>194.7955419930571</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>86.76642653324078</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>176.8008973295436</v>
+        <v>427.7834124745222</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>98.93303561408925</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>35.112639576356</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5874149221290565</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>114.7699989900979</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.329716221310008</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>38.89198472948488</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>41.11201973523686</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9259388694759139</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.81829093850965</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>57.22910392194426</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>106.0841272570751</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>860565.5611687775</v>
+        <v>860565.5611687776</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>793067.3743478794</v>
+        <v>793067.3743478793</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>793067.3743478793</v>
+        <v>793067.3743478794</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>793067.3743478793</v>
+        <v>793067.3743478792</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>793067.3743478794</v>
+        <v>793067.3743478793</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>793067.3743478793</v>
+        <v>793067.3743478792</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="F2" t="n">
-        <v>625538.6147597546</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
@@ -26334,28 +26334,28 @@
         <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597545</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918878</v>
+        <v>787455.5478918869</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.24700849981</v>
+        <v>4906.247008500511</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>172360.9924002808</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909052</v>
+        <v>190891.9800909054</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26432,7 +26432,7 @@
         <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707425</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
         <v>6897.424496707359</v>
@@ -26441,25 +26441,25 @@
         <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707309</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707331</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707321</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707257</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707425</v>
+        <v>6897.424496707325</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707331</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051735</v>
+        <v>86500.62127051734</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-428540.7776084905</v>
+        <v>-428540.7776084897</v>
       </c>
       <c r="C6" t="n">
-        <v>354891.234377226</v>
+        <v>354891.2343772252</v>
       </c>
       <c r="D6" t="n">
-        <v>359797.4813857256</v>
+        <v>359797.4813857254</v>
       </c>
       <c r="E6" t="n">
-        <v>-258517.0660918011</v>
+        <v>-258204.4247628798</v>
       </c>
       <c r="F6" t="n">
-        <v>517171.2811847831</v>
+        <v>517483.9225137045</v>
       </c>
       <c r="G6" t="n">
-        <v>517171.2811847834</v>
+        <v>517483.9225137046</v>
       </c>
       <c r="H6" t="n">
-        <v>517171.2811847834</v>
+        <v>517483.9225137046</v>
       </c>
       <c r="I6" t="n">
-        <v>517171.2811847834</v>
+        <v>517483.9225137044</v>
       </c>
       <c r="J6" t="n">
-        <v>344810.2887845027</v>
+        <v>345122.9301134239</v>
       </c>
       <c r="K6" t="n">
-        <v>517171.2811847834</v>
+        <v>517483.9225137045</v>
       </c>
       <c r="L6" t="n">
-        <v>517171.2811847834</v>
+        <v>517483.9225137045</v>
       </c>
       <c r="M6" t="n">
-        <v>389093.6843690695</v>
+        <v>389406.3256979908</v>
       </c>
       <c r="N6" t="n">
-        <v>517171.2811847835</v>
+        <v>517483.9225137046</v>
       </c>
       <c r="O6" t="n">
-        <v>517171.2811847833</v>
+        <v>517483.9225137046</v>
       </c>
       <c r="P6" t="n">
-        <v>517171.2811847831</v>
+        <v>517483.9225137044</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225493</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225493</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915515022</v>
+        <v>5.387915915515792</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.946793854488</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>227.1941229433311</v>
       </c>
       <c r="H2" t="n">
         <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359321</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>125.1291946439181</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.156519019379</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.504804251687489</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.504804251687887</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27548,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>67.67023871742673</v>
       </c>
       <c r="G4" t="n">
         <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
         <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775194</v>
+        <v>18.38275699775204</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894001</v>
+        <v>129.6100444894002</v>
       </c>
       <c r="S4" t="n">
         <v>205.5352037822505</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.884065342192315</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>179.5141674833313</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>84.84706530775856</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
@@ -27672,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27776,22 +27776,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>134.1112475182377</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
         <v>123.266557879417</v>
@@ -27830,10 +27830,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>279.2802704148967</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>363.6591621979864</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>25.03070636021653</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29498,7 +29498,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30273,10 +30273,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30413,7 +30413,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-2.942703756276784e-12</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-8.038590482916834e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718793</v>
+        <v>2.364173605718789</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956759</v>
+        <v>24.21209293956755</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447383</v>
+        <v>91.14480293447372</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683755</v>
+        <v>200.6562795683753</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984521</v>
+        <v>300.7317482984517</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844687</v>
+        <v>373.0843262844681</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451702</v>
+        <v>415.1281986451696</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024187</v>
+        <v>421.8454069024182</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105525</v>
+        <v>398.3366556105519</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193698</v>
+        <v>339.9711197193693</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645654</v>
+        <v>255.3041524645651</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602332</v>
+        <v>148.508520260233</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031704</v>
+        <v>53.87360604031696</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903402</v>
+        <v>10.34916995903401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575034</v>
+        <v>0.1891338884575031</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682466</v>
+        <v>1.264944396682465</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2166998311175</v>
+        <v>12.21669983111749</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770773</v>
+        <v>43.55181365770766</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777939</v>
+        <v>119.5095054777937</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555191</v>
+        <v>204.2607800555188</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305504</v>
+        <v>274.65382613055</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102897</v>
+        <v>320.5080605102893</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704981</v>
+        <v>328.9909551704977</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808498</v>
+        <v>300.9624503808494</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489527</v>
+        <v>241.5488997489524</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361689</v>
+        <v>161.4690426361686</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910964</v>
+        <v>78.53751262910953</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820281</v>
+        <v>23.49578736820278</v>
       </c>
       <c r="T3" t="n">
-        <v>5.09861359890871</v>
+        <v>5.098613598908703</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753071</v>
+        <v>0.0832200260975306</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942303</v>
+        <v>1.060486889942302</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577939</v>
+        <v>9.428692530577926</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753764</v>
+        <v>31.8917330175376</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892083</v>
+        <v>74.97642311892074</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314785</v>
+        <v>123.2092950314783</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646948</v>
+        <v>157.6654781646946</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934103</v>
+        <v>166.2361403934101</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308982</v>
+        <v>162.283416530898</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983903</v>
+        <v>149.8950014983901</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435672</v>
+        <v>128.2610689435671</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780506</v>
+        <v>88.80131584780493</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776937</v>
+        <v>47.6833468877693</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472177</v>
+        <v>18.48139425472175</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026203</v>
+        <v>4.531171257026197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139842</v>
+        <v>0.05784473945139835</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>248.0319961154042</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>400.5469039565762</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168925</v>
+        <v>19.610375041689</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347154</v>
+        <v>80.64189725347114</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649318</v>
+        <v>554.9791258649313</v>
       </c>
       <c r="M2" t="n">
-        <v>634.29549891073</v>
+        <v>634.2954989107294</v>
       </c>
       <c r="N2" t="n">
-        <v>629.779267717812</v>
+        <v>629.7792677178114</v>
       </c>
       <c r="O2" t="n">
-        <v>547.3865996076844</v>
+        <v>547.3865996076871</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239641002</v>
+        <v>108.7381239640998</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011593</v>
+        <v>32.99846259011559</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937387</v>
+        <v>330.8845780937385</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541354</v>
+        <v>506.939791654135</v>
       </c>
       <c r="M3" t="n">
-        <v>644.0790903382713</v>
+        <v>644.0790903382708</v>
       </c>
       <c r="N3" t="n">
-        <v>197.6492430871648</v>
+        <v>197.6492430871644</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131348</v>
+        <v>552.2285252131344</v>
       </c>
       <c r="P3" t="n">
-        <v>355.1608540139431</v>
+        <v>355.1608540139449</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.48726855014735</v>
+        <v>21.48726855014712</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055956</v>
+        <v>100.9398032055955</v>
       </c>
       <c r="L4" t="n">
-        <v>185.255503425011</v>
+        <v>185.2555034250107</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552509</v>
+        <v>205.8200173552507</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101268</v>
+        <v>206.4155889101266</v>
       </c>
       <c r="O4" t="n">
-        <v>174.48012941243</v>
+        <v>174.4801294124298</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084607</v>
+        <v>125.5396282084606</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110672</v>
+        <v>2.639272596110544</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>335.531557994323</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>198.6192803206413</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
         <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>377.4642727362756</v>
+        <v>628.4467878812542</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>120.3817729811431</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902408</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010422</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>257.9506595121318</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
